--- a/地平线407引脚.xlsx
+++ b/地平线407引脚.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86135\Desktop\skyline_changed\skyline_changedVersion1\407_changed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86135\Desktop\skyline_changed\skyline_changed\skyline_changed\skyline_changedVersion1\407_changed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EAF387-6D2D-4C03-A69F-A6CFE49028F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD3815A-1F9E-4B0E-8610-0C21EC9BCD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22056" yWindow="2592" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>引脚</t>
   </si>
@@ -78,72 +78,138 @@
     <t>WWDG</t>
   </si>
   <si>
+    <t>PF0 PF1</t>
+  </si>
+  <si>
+    <t>电机1</t>
+  </si>
+  <si>
+    <t>can1</t>
+  </si>
+  <si>
     <t>PE9 PE11</t>
   </si>
   <si>
+    <t>编码器(TIM1) 电机1</t>
+  </si>
+  <si>
     <t>灰度传感器</t>
   </si>
   <si>
     <t>ADCx4?</t>
   </si>
   <si>
-    <t>TIM5用于计时</t>
-  </si>
-  <si>
-    <t>PE13</t>
-  </si>
-  <si>
-    <t>PWM输出(TIM1)电机1</t>
+    <t>TIM6用于计时</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM5 CH2)电机1</t>
   </si>
   <si>
     <t>USART1</t>
   </si>
   <si>
-    <t>PE14</t>
-  </si>
-  <si>
-    <t>PWM输出(TIM1)舵机1</t>
-  </si>
-  <si>
-    <t>CAN?</t>
-  </si>
-  <si>
-    <t>PA5 PB3</t>
+    <t>DCMI用于连接摄像头</t>
+  </si>
+  <si>
+    <t>PF6</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM10)舵机1</t>
+  </si>
+  <si>
+    <t>PF2 PF3</t>
+  </si>
+  <si>
+    <t>电机2</t>
+  </si>
+  <si>
+    <t>PA15 PB3</t>
   </si>
   <si>
     <t>编码器(TIM2) 电机2</t>
   </si>
   <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>PWM输出(TIM2)电机2</t>
-  </si>
-  <si>
-    <t>PWM输出(TIM2)舵机2</t>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM5 CH3)电机2</t>
+  </si>
+  <si>
+    <t>PF7</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM11)舵机2</t>
+  </si>
+  <si>
+    <t>PF4 PF5</t>
+  </si>
+  <si>
+    <t>电机3</t>
+  </si>
+  <si>
+    <t>PB4 PB5</t>
   </si>
   <si>
     <t>编码器(TIM3) 电机3</t>
   </si>
   <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>PWM输出(TIM3)电机3</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>PWM输出(TIM3)舵机3</t>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM5 CH4)电机3</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM8CH3)舵机3</t>
+  </si>
+  <si>
+    <t>PF11 PF12</t>
+  </si>
+  <si>
+    <t>电机4</t>
+  </si>
+  <si>
+    <t>PD12 PD13</t>
+  </si>
+  <si>
+    <t>编码器(TIM4) 电机4</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM8 CH4)电机4</t>
+  </si>
+  <si>
+    <t>PF8</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM13)舵机4</t>
+  </si>
+  <si>
+    <t>PWM输出(TIM14)步进电机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB12 PB13  PC10 PC11 PD8 PD9 PD10 PD11 </t>
   </si>
   <si>
     <t>推挽输出 用途待定</t>
   </si>
   <si>
+    <t>PC5</t>
+  </si>
+  <si>
     <t>推挽输出 用于控制步进电机</t>
   </si>
   <si>
+    <t>PC1 PC2 PC3 PC4</t>
+  </si>
+  <si>
+    <t>ADC IN11 12 13 14用于灰度传感器</t>
+  </si>
+  <si>
     <t>PA11</t>
   </si>
   <si>
@@ -156,122 +222,40 @@
     <t>CAN_TX</t>
   </si>
   <si>
-    <r>
-      <t>PB4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PA7</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC1 PC2 PC3 PC4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC IN11 12 13 14用于灰度传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码器(TIM4) 电机4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM输出(TIM4)舵机4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM输出(TIM4)电机4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM输出(TIM5)步进电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC10 PC11</t>
-  </si>
-  <si>
-    <t>PD12 PD13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>PB10 PB11</t>
   </si>
   <si>
     <t>激光蓝牙（USART3）TX RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码器(TIM1) 电机1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF0 PF1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF2 PF3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF4 PF5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF6 PF7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PB12 PB13  PB15 PC0 PD8 PD9 PD10 PD11 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +266,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -294,18 +279,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -322,14 +301,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -619,6 +601,7 @@
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="4" max="4" width="25.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,7 +622,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -656,7 +639,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -674,205 +657,208 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
+      <c r="A6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
+      <c r="A10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
+      <c r="A11" t="s">
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
+      <c r="A15" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
+      <c r="A20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
